--- a/Fighters/GameExplanation.xlsx
+++ b/Fighters/GameExplanation.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="135" windowWidth="18195" windowHeight="8505"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="41">
   <si>
     <t>world objects</t>
   </si>
@@ -133,6 +133,12 @@
   </si>
   <si>
     <t>bonuses(position,time)</t>
+  </si>
+  <si>
+    <t>attackPower</t>
+  </si>
+  <si>
+    <t>deffencePower</t>
   </si>
 </sst>
 </file>
@@ -583,8 +589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -637,7 +643,11 @@
       <c r="X2" s="10"/>
       <c r="Z2" s="10"/>
     </row>
-    <row r="3" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
     <row r="4" spans="1:27" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="10"/>
       <c r="D4" s="10"/>
@@ -646,6 +656,9 @@
       </c>
       <c r="H4" s="10"/>
       <c r="J4" s="10"/>
+      <c r="M4" s="8" t="s">
+        <v>35</v>
+      </c>
       <c r="P4" s="9" t="s">
         <v>2</v>
       </c>
@@ -655,7 +668,14 @@
       <c r="X4" s="10"/>
       <c r="Z4" s="10"/>
     </row>
-    <row r="5" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
     <row r="6" spans="1:27" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="10"/>
       <c r="C6" s="9" t="s">
@@ -669,6 +689,9 @@
       <c r="J6" s="10"/>
       <c r="N6" s="9" t="s">
         <v>3</v>
+      </c>
+      <c r="P6" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="R6" s="10"/>
       <c r="S6" s="9" t="s">
